--- a/controllers/CL_TEST_8_action 5/data/NO_CL_3_0/NO_CL_3_0_TEST_terminal_2/NO_CL_3_0_TEST_terminal_2_Test_Result.xlsx
+++ b/controllers/CL_TEST_8_action 5/data/NO_CL_3_0/NO_CL_3_0_TEST_terminal_2/NO_CL_3_0_TEST_terminal_2_Test_Result.xlsx
@@ -448,13 +448,13 @@
         <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
     </row>
     <row r="5">
       <c r="B5" t="n">
-        <v>0.8225</v>
+        <v>0.87</v>
       </c>
       <c r="C5" t="n">
         <v>0.0075</v>
       </c>
       <c r="D5" t="n">
-        <v>0.17</v>
+        <v>0.1225</v>
       </c>
     </row>
   </sheetData>
